--- a/bin/excel/SpanishEnglish-CASA1.xlsx
+++ b/bin/excel/SpanishEnglish-CASA1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A851A-4128-498E-8EE7-B2FEC3D7B5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5AB09C-E63F-4111-94D7-F94D9A56412E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C5229D5B-D844-4E8F-82B5-017C7AB6B7D6}"/>
   </bookViews>
@@ -32,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>patillas</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>mosquito net</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>lata de atun</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>camera</t>
   </si>
   <si>
-    <t>cojin</t>
-  </si>
-  <si>
     <t>agujetas</t>
   </si>
   <si>
@@ -173,9 +164,6 @@
   </si>
   <si>
     <t>trapo</t>
-  </si>
-  <si>
-    <t>rag</t>
   </si>
   <si>
     <t>empaste</t>
@@ -218,10 +206,94 @@
     <t>lunar</t>
   </si>
   <si>
-    <t>corrugated cardboard sheet</t>
-  </si>
-  <si>
     <t>cartones</t>
+  </si>
+  <si>
+    <t>corrugated cardboard sheets</t>
+  </si>
+  <si>
+    <t>rags</t>
+  </si>
+  <si>
+    <t>saidbern</t>
+  </si>
+  <si>
+    <t>esl'aiding 'uindou</t>
+  </si>
+  <si>
+    <t>cisor</t>
+  </si>
+  <si>
+    <t>mosq'uiro net</t>
+  </si>
+  <si>
+    <t>mol</t>
+  </si>
+  <si>
+    <t>ken t'una</t>
+  </si>
+  <si>
+    <t>t'ous</t>
+  </si>
+  <si>
+    <t>cher esl'ipcovers</t>
+  </si>
+  <si>
+    <t>jer combs</t>
+  </si>
+  <si>
+    <t>korregeired cardbord shits</t>
+  </si>
+  <si>
+    <t>cardbord bax</t>
+  </si>
+  <si>
+    <t>bosh</t>
+  </si>
+  <si>
+    <t>balkeny</t>
+  </si>
+  <si>
+    <t>trash ken</t>
+  </si>
+  <si>
+    <t>brum</t>
+  </si>
+  <si>
+    <t>jaket</t>
+  </si>
+  <si>
+    <t>roud sains</t>
+  </si>
+  <si>
+    <t>briek</t>
+  </si>
+  <si>
+    <t>kemera</t>
+  </si>
+  <si>
+    <t>shuleices</t>
+  </si>
+  <si>
+    <t>neol clipper</t>
+  </si>
+  <si>
+    <t>kombs</t>
+  </si>
+  <si>
+    <t>uol f'ieler</t>
+  </si>
+  <si>
+    <t>karpet</t>
+  </si>
+  <si>
+    <t>cojines</t>
+  </si>
+  <si>
+    <t>kushens</t>
+  </si>
+  <si>
+    <t>riest</t>
   </si>
 </sst>
 </file>
@@ -580,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0BEDAE-E183-48E3-BD00-AAB5FA774387}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,13 +666,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -706,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -720,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -734,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -762,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -818,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -832,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -846,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -860,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,13 +960,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -902,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -916,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -930,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -944,13 +1016,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -958,13 +1030,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -972,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -986,13 +1058,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1000,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
